--- a/src/test/resources/script.db/2018-5-3-devops.xlsx
+++ b/src/test/resources/script.db/2018-5-3-devops.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t xml:space="preserve">devops_app_template</t>
   </si>
@@ -98,6 +98,9 @@
     <t xml:space="preserve">devops_user</t>
   </si>
   <si>
+    <t xml:space="preserve">#iam_user_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">gitlab_user_id</t>
   </si>
 </sst>
@@ -259,9 +262,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.0042918454936"/>
-    <col collapsed="false" hidden="false" max="1011" min="2" style="0" width="18.1673819742489"/>
-    <col collapsed="false" hidden="false" max="1025" min="1012" style="0" width="23.5064377682403"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.9785407725322"/>
+    <col collapsed="false" hidden="false" max="1011" min="2" style="0" width="19.3047210300429"/>
+    <col collapsed="false" hidden="false" max="1025" min="1012" style="0" width="25.0944206008584"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -287,14 +290,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="18.1673819742489"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="104.017167381974"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="171.467811158798"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="117.643776824034"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="112.875536480687"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="96.9742489270386"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="123.321888412017"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="18.1673819742489"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="19.3047210300429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="111.171673819742"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="183.390557939914"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="125.81974248927"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="120.708154506438"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="103.789699570815"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="131.952789699571"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="19.3047210300429"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,16 +406,16 @@
   <dimension ref="D7:F8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.0128755364807"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.3218884120172"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0128755364807"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="142.510729613734"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.0128755364807"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.6952789699571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="93.343347639485"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6952789699571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="152.50643776824"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.6952789699571"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,10 +423,10 @@
         <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/test/resources/script.db/2018-5-3-devops.xlsx
+++ b/src/test/resources/script.db/2018-5-3-devops.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chang\Projects\java\choerodon\devops\devops-service\src\test\resources\script.db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8955" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,17 +15,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>devops_app_template</t>
   </si>
@@ -82,6 +72,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>jar</t>
     </r>
@@ -90,7 +81,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="文泉驿微米黑"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">库
@@ -107,78 +97,407 @@
     <t>gitlab_user_id</t>
   </si>
   <si>
+    <t>gitlab_user_name</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>devops_project</t>
+  </si>
+  <si>
+    <t>#iam_project_id</t>
+  </si>
+  <si>
     <t>devops_app_group_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>devops_env_group_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#iam_project_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops_project</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="文泉驿微米黑"/>
-      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -186,33 +505,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -223,7 +825,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="363636"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -261,7 +863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,7 +898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,33 +1072,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="61"/>
-    <col min="2" max="1011" width="19.296875"/>
-    <col min="1012" max="1025" width="25.09765625"/>
+    <col min="2" max="1011" width="19.2962962962963"/>
+    <col min="1012" max="1025" width="25.0962962962963"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -505,59 +1101,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:J10"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="19.296875"/>
-    <col min="4" max="4" width="111.19921875"/>
-    <col min="5" max="5" width="183.3984375"/>
-    <col min="6" max="6" width="125.796875"/>
-    <col min="7" max="7" width="120.69921875"/>
-    <col min="8" max="8" width="103.796875"/>
-    <col min="9" max="9" width="131.8984375"/>
-    <col min="10" max="1025" width="19.296875"/>
+    <col min="1" max="3" width="19.2962962962963"/>
+    <col min="4" max="4" width="111.2"/>
+    <col min="5" max="5" width="183.4"/>
+    <col min="6" max="6" width="125.8"/>
+    <col min="7" max="7" width="120.696296296296"/>
+    <col min="8" max="8" width="103.8"/>
+    <col min="9" max="9" width="131.896296296296"/>
+    <col min="10" max="1025" width="19.2962962962963"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10" ht="16.2">
-      <c r="D7" s="1" t="s">
+    <row r="7" spans="4:10">
+      <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="4:10" ht="16.2">
-      <c r="E8" s="2">
+    <row r="8" spans="5:10">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I8" t="s">
@@ -567,17 +1164,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:10" ht="16.2">
-      <c r="E9" s="2">
+    <row r="9" spans="5:10">
+      <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
@@ -587,20 +1184,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:10" ht="32.4">
-      <c r="E10" s="2">
+    <row r="10" ht="39.75" spans="5:10">
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J10">
@@ -608,13 +1205,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G10" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId1" display="https://github.com/choerodon/choerodon-microservice-template.git"/>
+    <hyperlink ref="G10" r:id="rId2" display="https://github.com/choerodon/choerodon-javalib-template.git"/>
   </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
@@ -623,45 +1219,53 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:G8"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.69921875"/>
-    <col min="4" max="4" width="93.296875"/>
-    <col min="5" max="5" width="32.796875" customWidth="1"/>
-    <col min="6" max="6" width="152.5"/>
-    <col min="7" max="1025" width="11.69921875"/>
+    <col min="1" max="3" width="11.6962962962963" style="1"/>
+    <col min="4" max="4" width="16.4962962962963" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7851851851852" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.2666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1851851851852" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.6962962962963" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:6">
-      <c r="D7" t="s">
+    <row r="7" spans="4:7">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="4:6">
-      <c r="E8">
+    <row r="8" spans="5:7">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"页 &amp;P</oddFooter>
@@ -670,35 +1274,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="34.8984375" customWidth="1"/>
-    <col min="2" max="2" width="21.296875" customWidth="1"/>
-    <col min="3" max="3" width="38.09765625" customWidth="1"/>
+    <col min="1" max="1" width="34.8962962962963" customWidth="1"/>
+    <col min="2" max="2" width="21.2962962962963" customWidth="1"/>
+    <col min="3" max="3" width="38.0962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="4:7">
+    <row r="8" spans="5:7">
       <c r="E8">
         <v>1</v>
       </c>
@@ -710,8 +1315,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>